--- a/biology/Microbiologie/Kamburophrys_gibba/Kamburophrys_gibba.xlsx
+++ b/biology/Microbiologie/Kamburophrys_gibba/Kamburophrys_gibba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kamburophrys · Kamburophryidae
 Kamburophrys gibba, unique représentant du genre Kamburophrys et de la famille des Kamburophryidae, est une espèce de Ciliés de la classe des Gymnostomatea et de l'ordre des Haptorida.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Kamburophrys, d'après Wilhelm Foissner (d) et Anke Oertel (d), est composé des mots grecs kambura, « bosse »[note 1], et ophrys (du grec ancien οφρύς / ophrýs, « cil, cilium, cilié »), littéralement « cilié avec une bosse », sans doute en référence à la « bosse sous-apicale » qui caractérise ce genre.
-Quant à l'épithète spécifique de l'espèce type Kamburophrys gibba, il est issu du latin gibba, « bosse, gibbosité », et désigne aussi la bosse dorsale[1].
+Quant à l'épithète spécifique de l'espèce type Kamburophrys gibba, il est issu du latin gibba, « bosse, gibbosité », et désigne aussi la bosse dorsale.
 </t>
         </is>
       </c>
@@ -544,14 +558,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 En 2009, après avoir redécouvert et étudié en microscopie électronique une espèce créée en 1935 par Alfred Kahl (1877-1946), Foissner et Oertel en font un nouveau genre et une nouvelle espèce et crée à cette occasion une nouvelle famille. Ils résument ainsi leur étude : 
 « Lagynophrya gibba[note 2], qui a été redécouvert dans le sol des tourbières d'Islande, appartient à un nouveau genre, Kamburophrys, et à une nouvelle famille, les Kamburophryidae, basée sur un organite unique, la brosse membranoïde. Cette structure est proche de la brosse dorsale et composée de cils très rapprochés, d'environ 5 μm de long. Le genre Kamburophrys présente une combinaison unique de caractéristiques :
 un cône oral sur le renflement buccal ;
 une cinétie circonbuccale oblique ;
-une bosse sous-apicale portant la brosse dorsale à trois rangées et la brosse membranoïde[1]. »
+une bosse sous-apicale portant la brosse dorsale à trois rangées et la brosse membranoïde. »
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Lagynophrya gibba réétudiée et rebaptisée Kamburophrys gibba en 2009, a été redécouverte par Foissner et Oertel dans le sol de tourbières d'Islande[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Lagynophrya gibba réétudiée et rebaptisée Kamburophrys gibba en 2009, a été redécouverte par Foissner et Oertel dans le sol de tourbières d'Islande.
 </t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Foissner et Oertel les Kamburophryidae pourraient appartenir à l'ordre des Spathidiida[1]. GBIF       (29 octobre 2023)[2] les place dans l'ordre des Haptorida.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Foissner et Oertel les Kamburophryidae pourraient appartenir à l'ordre des Spathidiida. GBIF       (29 octobre 2023) les place dans l'ordre des Haptorida.
 </t>
         </is>
       </c>
@@ -642,7 +662,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Wilhelm Foissner et Anke Oertel, « Morphology and ciliary pattern of some rare haptorid ciliates, with a description of the new family Kamburophryidae (Protists, Haptoria) », European Journal of Protistology, Elsevier, vol. 45, no 3,‎ 17 mars 2009, p. 205-218 (ISSN 0932-4739, 1618-0429 et 0932-4739, PMID 19297137, DOI 10.1016/J.EJOP.2008.11.002, lire en ligne)</t>
         </is>
